--- a/Documentation/Journal de travail/Journal_de_travaille_Antoine-Roulin.xlsx
+++ b/Documentation/Journal de travail/Journal_de_travaille_Antoine-Roulin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Desktop\Cours\ICT-431\Journal de travail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BatailleNavale\BatailleNavale\Documentation\Journal de travail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE0FC58-27FC-46BA-9E88-41614D4E66C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1274A853-9AB2-41EA-92E0-2B2B9F4137BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="5655" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>DATE</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Correction des dernier bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création du sprint 4 + issues </t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +494,7 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:D14" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D15" si="0">C2-B2</f>
         <v>3.125E-2</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -730,11 +733,22 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">

--- a/Documentation/Journal de travail/Journal_de_travaille_Antoine-Roulin.xlsx
+++ b/Documentation/Journal de travail/Journal_de_travaille_Antoine-Roulin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BatailleNavale\BatailleNavale\Documentation\Journal de travail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1274A853-9AB2-41EA-92E0-2B2B9F4137BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DD9E5E-E5F1-4E18-9D8A-D38BFF538899}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="5655" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="2715" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>DATE</t>
   </si>
@@ -94,6 +94,33 @@
   </si>
   <si>
     <t xml:space="preserve">Création du sprint 4 + issues </t>
+  </si>
+  <si>
+    <t>Création du login</t>
+  </si>
+  <si>
+    <t>Création MCD</t>
+  </si>
+  <si>
+    <t>Correction du bug de la fonction login</t>
+  </si>
+  <si>
+    <t>Je n'ai toujours pas réussi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecture de documentation sur la lecture et écriture  dans un fichier </t>
+  </si>
+  <si>
+    <t>Lecture de documentation sur comment créer des logs, écriture et lecture de donnée sur un fichier Internet</t>
+  </si>
+  <si>
+    <t>Refonte de la fonction Login</t>
+  </si>
+  <si>
+    <t>Réalisation des fonctionnalités logs, scores, afficher les scores précédent et charger une map venant d'un fichier externe</t>
+  </si>
+  <si>
+    <t>Création de 6 maps et la fonctionnalité de la séléction aléatoire d'une des 6 maps</t>
   </si>
 </sst>
 </file>
@@ -451,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +521,7 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:D15" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D23" si="0">C2-B2</f>
         <v>3.125E-2</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -752,67 +779,157 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
+      <c r="A17" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
+      <c r="A18" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
+      <c r="A21" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>5.902777777777779E-2</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
